--- a/mo-200/DSA MO 200 4. Perform operations by using formulas and functions.xlsx
+++ b/mo-200/DSA MO 200 4. Perform operations by using formulas and functions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data Analytics\MOS 200\DataSense MO200\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jelisha\Documents\GitHub\excel-projects\mo-200\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8487F08F-447B-4260-9F66-1110701FE291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1524A037-4EF1-44C5-9D09-2D7FACDCAEDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MO 200 Section 4 - Index" sheetId="2" r:id="rId1"/>
@@ -35,6 +35,7 @@
     <definedName name="_xlcn.WorksheetConnection_T9A2C161" localSheetId="2" hidden="1">#REF!</definedName>
     <definedName name="_xlcn.WorksheetConnection_T9A2C161" localSheetId="8" hidden="1">#REF!</definedName>
     <definedName name="_xlcn.WorksheetConnection_T9A2C161" hidden="1">#REF!</definedName>
+    <definedName name="Category">'Reference named ranges '!$A$6:$A$10</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,9 +45,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -54,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="302">
   <si>
     <t>SN</t>
   </si>
@@ -433,9 +437,6 @@
   </si>
   <si>
     <t>=E48/$F48</t>
-  </si>
-  <si>
-    <t>Notice that $F$53 doesn't change when you copy the formula</t>
   </si>
   <si>
     <t>Marketing Budget</t>
@@ -580,53 +581,6 @@
     <t>SUM</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">The </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>SUBTOTAL</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> function returns a </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>subtotal</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> in a range.</t>
-    </r>
-  </si>
-  <si>
     <t>SUBTOTAL</t>
   </si>
   <si>
@@ -657,38 +611,6 @@
       </rPr>
       <t xml:space="preserve"> function returns an arithmetic mean in a range</t>
     </r>
-  </si>
-  <si>
-    <t>AVARAGE</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">The </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>AVERAGEA</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> returns an arithmetic mean in a range, including non-numeric and empty cells</t>
-    </r>
-  </si>
-  <si>
-    <t>AVARAGEA</t>
   </si>
   <si>
     <t>Filtered Total</t>
@@ -1514,6 +1436,133 @@
   </si>
   <si>
     <t>Extract the following text</t>
+  </si>
+  <si>
+    <t>Notice that $F$51 doesn't change when you copy the formula</t>
+  </si>
+  <si>
+    <t>AVERAGE</t>
+  </si>
+  <si>
+    <t>AVERAGEA</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AVERAGEA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> returns an arithmetic mean in a range, including non-numeric and empty cells.</t>
+    </r>
+  </si>
+  <si>
+    <t>(This form assumes non-numeric entries have a value of 0)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SUBTOTAL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> function returns a </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>subtotal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in a range. (Function name </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1-11 = include hidden</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>101-111 ignore hidden</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -2174,7 +2223,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="6"/>
   </cellStyleXfs>
-  <cellXfs count="142">
+  <cellXfs count="143">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2525,6 +2574,9 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Calculation" xfId="4" builtinId="22"/>
@@ -2537,6 +2589,46 @@
     <cellStyle name="YellowCell 2 2" xfId="7" xr:uid="{280C3190-8A1D-4172-B36D-54A7C0D6453A}"/>
   </cellStyles>
   <dxfs count="19">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
       <fill>
@@ -2821,46 +2913,6 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -2907,8 +2959,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="177404" y="3717051"/>
-          <a:ext cx="4639739" cy="735134"/>
+          <a:off x="177404" y="3696096"/>
+          <a:ext cx="4664504" cy="704654"/>
           <a:chOff x="177404" y="6460251"/>
           <a:chExt cx="4639739" cy="735134"/>
         </a:xfrm>
@@ -3160,14 +3212,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{52C449B4-0ECC-4401-95CD-DCF77C7F0F54}" name="Table1" displayName="Table1" ref="A16:E22" totalsRowCount="1" headerRowDxfId="14" dataDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="11" totalsRowBorderDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{52C449B4-0ECC-4401-95CD-DCF77C7F0F54}" name="Table1" displayName="Table1" ref="A16:E22" totalsRowCount="1" headerRowDxfId="18" dataDxfId="16" headerRowBorderDxfId="17" tableBorderDxfId="15" totalsRowBorderDxfId="14">
   <autoFilter ref="A16:E21" xr:uid="{52C449B4-0ECC-4401-95CD-DCF77C7F0F54}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{9BE0BA43-1939-40C9-8AE0-B909083623E9}" name="Category" totalsRowLabel="Total" dataDxfId="9" totalsRowDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{57D5C58F-9AD8-47D6-8D73-A95DBB1EBFEC}" name="2020" dataDxfId="7" totalsRowDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{36547759-EAFA-48A5-B004-3ED6687D9C5F}" name="2021" dataDxfId="5" totalsRowDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{F0BB3864-A333-4A27-A68F-D8466E907D0C}" name="2022" dataDxfId="3" totalsRowDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{21F3E341-CDA1-44F2-B001-64D52A024C07}" name="2023" dataDxfId="1" totalsRowDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{9BE0BA43-1939-40C9-8AE0-B909083623E9}" name="Category" totalsRowLabel="Total" dataDxfId="13" totalsRowDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{57D5C58F-9AD8-47D6-8D73-A95DBB1EBFEC}" name="2020" dataDxfId="11" totalsRowDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{36547759-EAFA-48A5-B004-3ED6687D9C5F}" name="2021" dataDxfId="9" totalsRowDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{F0BB3864-A333-4A27-A68F-D8466E907D0C}" name="2022" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{21F3E341-CDA1-44F2-B001-64D52A024C07}" name="2023" dataDxfId="5" totalsRowDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3442,22 +3494,24 @@
   </sheetPr>
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" style="13" customWidth="1"/>
-    <col min="2" max="2" width="75.7109375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="80.7109375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="4"/>
-    <col min="6" max="6" width="9.140625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="4" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="4" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="14.6640625" style="13" customWidth="1"/>
+    <col min="2" max="2" width="75.6640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="80.6640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" style="4"/>
+    <col min="6" max="6" width="9.109375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="9.109375" style="4" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="9.109375" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -3465,11 +3519,11 @@
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
       <c r="B2" s="3"/>
     </row>
-    <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
@@ -3483,7 +3537,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="21" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>4</v>
       </c>
@@ -3493,7 +3547,7 @@
       <c r="C4" s="9"/>
       <c r="D4" s="10"/>
     </row>
-    <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="18">
         <v>4.0999999999999996</v>
       </c>
@@ -3508,7 +3562,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="17" t="s">
         <v>25</v>
       </c>
@@ -3516,14 +3570,14 @@
         <v>14</v>
       </c>
       <c r="C6" s="141" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" s="141"/>
       <c r="G6" s="12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="17" t="s">
         <v>26</v>
       </c>
@@ -3531,14 +3585,14 @@
         <v>16</v>
       </c>
       <c r="C7" s="141" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" s="141"/>
       <c r="G7" s="12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="18">
         <v>4.2</v>
       </c>
@@ -3553,7 +3607,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="17" t="s">
         <v>27</v>
       </c>
@@ -3561,11 +3615,11 @@
         <v>18</v>
       </c>
       <c r="C9" s="141" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D9" s="141"/>
     </row>
-    <row r="10" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="17" t="s">
         <v>28</v>
       </c>
@@ -3573,11 +3627,11 @@
         <v>19</v>
       </c>
       <c r="C10" s="141" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10" s="141"/>
     </row>
-    <row r="11" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="17" t="s">
         <v>29</v>
       </c>
@@ -3585,11 +3639,11 @@
         <v>20</v>
       </c>
       <c r="C11" s="141" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11" s="141"/>
     </row>
-    <row r="12" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="18">
         <v>4.3</v>
       </c>
@@ -3601,7 +3655,7 @@
       </c>
       <c r="D12" s="140"/>
     </row>
-    <row r="13" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="17" t="s">
         <v>30</v>
       </c>
@@ -3609,11 +3663,11 @@
         <v>22</v>
       </c>
       <c r="C13" s="141" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D13" s="141"/>
     </row>
-    <row r="14" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="17" t="s">
         <v>31</v>
       </c>
@@ -3621,11 +3675,11 @@
         <v>23</v>
       </c>
       <c r="C14" s="141" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D14" s="141"/>
     </row>
-    <row r="15" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="17" t="s">
         <v>32</v>
       </c>
@@ -3633,26 +3687,26 @@
         <v>24</v>
       </c>
       <c r="C15" s="141" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D15" s="141"/>
     </row>
-    <row r="21" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="15" t="s">
         <v>10</v>
       </c>
@@ -3660,19 +3714,19 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="CUzRgoYaksP1GKObAWdSD7+oVdQDTx4+x4C9vHlZPtl18x26J/wlfm0MInwZ4cyGzww1WuLM6A6UxXqKCGw0yg==" saltValue="kmQaXyUYxnZPHHkrpgScFw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <phoneticPr fontId="8" type="noConversion"/>
+  <conditionalFormatting sqref="B1:B15">
+    <cfRule type="duplicateValues" dxfId="3" priority="9"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C5:C15">
-    <cfRule type="cellIs" dxfId="18" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"Review Later"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"Done but needs practice"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>"Done &amp; Understood"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B15">
-    <cfRule type="duplicateValues" dxfId="15" priority="9"/>
   </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C15" xr:uid="{96962207-EE2F-4BE2-8F92-206607751FDF}">
@@ -3695,19 +3749,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD0DD208-BBE9-4019-BDAB-E5040D47ED7A}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="24" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" customWidth="1"/>
-    <col min="5" max="5" width="23.5703125" customWidth="1"/>
-    <col min="6" max="6" width="24.5703125" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" customWidth="1"/>
+    <col min="5" max="5" width="23.5546875" customWidth="1"/>
+    <col min="6" max="6" width="24.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="86" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B1" s="87"/>
       <c r="C1" s="88"/>
@@ -3719,37 +3775,37 @@
       </c>
       <c r="G1" s="23"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="128" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E7" s="133" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="F7" s="133" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B8" s="129" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C8" s="129" t="s">
         <v>40</v>
@@ -3758,141 +3814,201 @@
         <v>41</v>
       </c>
       <c r="E8" s="129" t="s">
+        <v>223</v>
+      </c>
+      <c r="F8" s="129" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B9" s="31" t="s">
+        <v>225</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>226</v>
+      </c>
+      <c r="E9" s="130" t="str">
+        <f>_xlfn.CONCAT(C9, D9)</f>
+        <v>JohnDoe</v>
+      </c>
+      <c r="F9" s="130" t="str">
+        <f>_xlfn.TEXTJOIN(", ",TRUE,D9, C9)</f>
+        <v>Doe, John</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B10" s="31" t="s">
+        <v>227</v>
+      </c>
+      <c r="C10" s="31" t="s">
         <v>228</v>
       </c>
-      <c r="F8" s="129" t="s">
+      <c r="D10" s="31" t="s">
+        <v>226</v>
+      </c>
+      <c r="E10" s="130" t="str">
+        <f t="shared" ref="E10:E18" si="0">_xlfn.CONCAT(C10, D10)</f>
+        <v>JaneDoe</v>
+      </c>
+      <c r="F10" s="130" t="str">
+        <f t="shared" ref="F10:F18" si="1">_xlfn.TEXTJOIN(", ",TRUE,D10, C10)</f>
+        <v>Doe, Jane</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B11" s="31" t="s">
+        <v>225</v>
+      </c>
+      <c r="C11" s="31" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="31" t="s">
+      <c r="D11" s="31" t="s">
         <v>230</v>
       </c>
-      <c r="C9" s="31" t="s">
-        <v>188</v>
-      </c>
-      <c r="D9" s="31" t="s">
+      <c r="E11" s="130" t="str">
+        <f t="shared" si="0"/>
+        <v>BruceBanner</v>
+      </c>
+      <c r="F11" s="130" t="str">
+        <f t="shared" si="1"/>
+        <v>Banner, Bruce</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B12" s="31" t="s">
+        <v>225</v>
+      </c>
+      <c r="C12" s="31" t="s">
         <v>231</v>
       </c>
-      <c r="E9" s="130"/>
-      <c r="F9" s="130"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="31" t="s">
+      <c r="D12" s="31" t="s">
         <v>232</v>
       </c>
-      <c r="C10" s="31" t="s">
+      <c r="E12" s="130" t="str">
+        <f t="shared" si="0"/>
+        <v>TonyStark</v>
+      </c>
+      <c r="F12" s="130" t="str">
+        <f t="shared" si="1"/>
+        <v>Stark, Tony</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B13" s="31" t="s">
+        <v>225</v>
+      </c>
+      <c r="C13" s="31" t="s">
         <v>233</v>
       </c>
-      <c r="D10" s="31" t="s">
-        <v>231</v>
-      </c>
-      <c r="E10" s="130"/>
-      <c r="F10" s="130"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="31" t="s">
-        <v>230</v>
-      </c>
-      <c r="C11" s="31" t="s">
+      <c r="D13" s="31" t="s">
         <v>234</v>
       </c>
-      <c r="D11" s="31" t="s">
+      <c r="E13" s="130" t="str">
+        <f t="shared" si="0"/>
+        <v>PeterParker</v>
+      </c>
+      <c r="F13" s="130" t="str">
+        <f t="shared" si="1"/>
+        <v>Parker, Peter</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B14" s="31" t="s">
+        <v>225</v>
+      </c>
+      <c r="C14" s="31" t="s">
         <v>235</v>
       </c>
-      <c r="E11" s="130"/>
-      <c r="F11" s="130"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="31" t="s">
-        <v>230</v>
-      </c>
-      <c r="C12" s="31" t="s">
+      <c r="D14" s="31" t="s">
         <v>236</v>
       </c>
-      <c r="D12" s="31" t="s">
+      <c r="E14" s="130" t="str">
+        <f t="shared" si="0"/>
+        <v>SteveRogers</v>
+      </c>
+      <c r="F14" s="130" t="str">
+        <f t="shared" si="1"/>
+        <v>Rogers, Steve</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B15" s="31" t="s">
         <v>237</v>
       </c>
-      <c r="E12" s="130"/>
-      <c r="F12" s="130"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="31" t="s">
-        <v>230</v>
-      </c>
-      <c r="C13" s="31" t="s">
+      <c r="C15" s="31" t="s">
         <v>238</v>
       </c>
-      <c r="D13" s="31" t="s">
+      <c r="D15" s="31" t="s">
         <v>239</v>
       </c>
-      <c r="E13" s="130"/>
-      <c r="F13" s="130"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="31" t="s">
-        <v>230</v>
-      </c>
-      <c r="C14" s="31" t="s">
+      <c r="E15" s="130" t="str">
+        <f t="shared" si="0"/>
+        <v>NathashaRomanoff</v>
+      </c>
+      <c r="F15" s="130" t="str">
+        <f t="shared" si="1"/>
+        <v>Romanoff, Nathasha</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B16" s="31" t="s">
         <v>240</v>
       </c>
-      <c r="D14" s="31" t="s">
+      <c r="C16" s="31" t="s">
         <v>241</v>
       </c>
-      <c r="E14" s="130"/>
-      <c r="F14" s="130"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="31" t="s">
+      <c r="D16" s="31" t="s">
         <v>242</v>
       </c>
-      <c r="C15" s="31" t="s">
+      <c r="E16" s="130" t="str">
+        <f t="shared" si="0"/>
+        <v>StephenStrange</v>
+      </c>
+      <c r="F16" s="130" t="str">
+        <f t="shared" si="1"/>
+        <v>Strange, Stephen</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B17" s="31" t="s">
+        <v>225</v>
+      </c>
+      <c r="C17" s="31" t="s">
         <v>243</v>
       </c>
-      <c r="D15" s="31" t="s">
+      <c r="D17" s="31" t="s">
         <v>244</v>
       </c>
-      <c r="E15" s="130"/>
-      <c r="F15" s="130"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="31" t="s">
+      <c r="E17" s="130" t="str">
+        <f t="shared" si="0"/>
+        <v>ScottLang</v>
+      </c>
+      <c r="F17" s="130" t="str">
+        <f t="shared" si="1"/>
+        <v>Lang, Scott</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B18" s="31" t="s">
+        <v>225</v>
+      </c>
+      <c r="C18" s="31" t="s">
         <v>245</v>
       </c>
-      <c r="C16" s="31" t="s">
+      <c r="D18" s="31" t="s">
         <v>246</v>
       </c>
-      <c r="D16" s="31" t="s">
-        <v>247</v>
-      </c>
-      <c r="E16" s="130"/>
-      <c r="F16" s="130"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="31" t="s">
-        <v>230</v>
-      </c>
-      <c r="C17" s="31" t="s">
-        <v>248</v>
-      </c>
-      <c r="D17" s="31" t="s">
-        <v>249</v>
-      </c>
-      <c r="E17" s="130"/>
-      <c r="F17" s="130"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="31" t="s">
-        <v>230</v>
-      </c>
-      <c r="C18" s="31" t="s">
-        <v>250</v>
-      </c>
-      <c r="D18" s="31" t="s">
-        <v>251</v>
-      </c>
-      <c r="E18" s="130"/>
-      <c r="F18" s="130"/>
+      <c r="E18" s="130" t="str">
+        <f t="shared" si="0"/>
+        <v>NickFury</v>
+      </c>
+      <c r="F18" s="130" t="str">
+        <f t="shared" si="1"/>
+        <v>Fury, Nick</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3904,25 +4020,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{338E895B-994E-47B9-9FA9-1AF2B13EF20B}">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" customWidth="1"/>
-    <col min="4" max="4" width="23.5703125" customWidth="1"/>
-    <col min="5" max="5" width="24.5703125" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" customWidth="1"/>
-    <col min="8" max="8" width="20.5703125" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" customWidth="1"/>
+    <col min="4" max="4" width="23.5546875" customWidth="1"/>
+    <col min="5" max="5" width="24.5546875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.109375" customWidth="1"/>
+    <col min="8" max="8" width="20.5546875" customWidth="1"/>
+    <col min="9" max="9" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="86" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="B1" s="87"/>
       <c r="C1" s="88"/>
@@ -3931,28 +4049,28 @@
       <c r="F1" s="23"/>
       <c r="G1" s="23"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B7" s="129" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C7" s="129" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="D7" s="129" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="E7" s="129" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B8" s="31" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C8" s="130" t="str">
         <f>UPPER(B8)</f>
@@ -3967,70 +4085,106 @@
         <v>John Doe</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B9" s="31" t="s">
+        <v>252</v>
+      </c>
+      <c r="C9" s="130" t="str">
+        <f>UPPER(B9)</f>
+        <v>JOHN DOE</v>
+      </c>
+      <c r="D9" s="130" t="str">
+        <f>LOWER(B9)</f>
+        <v>john doe</v>
+      </c>
+      <c r="E9" s="130" t="str">
+        <f>PROPER(B9)</f>
+        <v>John Doe</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B10" s="31" t="s">
+        <v>253</v>
+      </c>
+      <c r="C10" s="130" t="str">
+        <f t="shared" ref="C10:C12" si="0">UPPER(B10)</f>
+        <v>JOHN DOE</v>
+      </c>
+      <c r="D10" s="130" t="str">
+        <f t="shared" ref="D10:D12" si="1">LOWER(B10)</f>
+        <v>john doe</v>
+      </c>
+      <c r="E10" s="130" t="str">
+        <f t="shared" ref="E10:E12" si="2">PROPER(B10)</f>
+        <v>John Doe</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B11" s="31" t="s">
+        <v>254</v>
+      </c>
+      <c r="C11" s="130" t="str">
+        <f t="shared" si="0"/>
+        <v>JOHN DOE</v>
+      </c>
+      <c r="D11" s="130" t="str">
+        <f t="shared" si="1"/>
+        <v>john doe</v>
+      </c>
+      <c r="E11" s="130" t="str">
+        <f t="shared" si="2"/>
+        <v>John Doe</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B12" s="31" t="s">
+        <v>255</v>
+      </c>
+      <c r="C12" s="130" t="str">
+        <f t="shared" si="0"/>
+        <v>JOHN JEJEMON</v>
+      </c>
+      <c r="D12" s="130" t="str">
+        <f t="shared" si="1"/>
+        <v>john jejemon</v>
+      </c>
+      <c r="E12" s="130" t="str">
+        <f t="shared" si="2"/>
+        <v>John Jejemon</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C13" s="131"/>
+    </row>
+    <row r="14" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="56" t="s">
+        <v>256</v>
+      </c>
+      <c r="C14" s="56" t="s">
         <v>257</v>
       </c>
-      <c r="C9" s="130"/>
-      <c r="D9" s="130"/>
-      <c r="E9" s="130"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="31" t="s">
-        <v>258</v>
-      </c>
-      <c r="C10" s="130"/>
-      <c r="D10" s="130"/>
-      <c r="E10" s="130"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="31" t="s">
-        <v>259</v>
-      </c>
-      <c r="C11" s="130"/>
-      <c r="D11" s="130"/>
-      <c r="E11" s="130"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="31" t="s">
-        <v>260</v>
-      </c>
-      <c r="C12" s="130"/>
-      <c r="D12" s="130"/>
-      <c r="E12" s="130"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C13" s="131"/>
-    </row>
-    <row r="14" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="56" t="s">
-        <v>261</v>
-      </c>
-      <c r="C14" s="56" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="132" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="C15" s="57" t="str">
         <f ca="1">IFERROR(_xlfn.FORMULATEXT(C8),"")</f>
         <v>=UPPER(B8)</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="132" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="C16" s="57" t="str">
         <f ca="1">IFERROR(_xlfn.FORMULATEXT(D8),"")</f>
         <v>=LOWER(B8)</v>
       </c>
     </row>
-    <row r="17" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="132" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="C17" s="57" t="str">
         <f ca="1">IFERROR(_xlfn.FORMULATEXT(E8),"")</f>
@@ -4047,24 +4201,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8C73AFB-EF37-49C2-A399-9CFE985FA94C}">
   <dimension ref="A1:K72"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" style="4" customWidth="1"/>
-    <col min="2" max="3" width="11.140625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" style="24" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" style="4" customWidth="1"/>
+    <col min="2" max="3" width="11.109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="11.109375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="11.109375" style="24" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="4" customWidth="1"/>
     <col min="8" max="8" width="16" style="4" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.140625" style="4" customWidth="1"/>
-    <col min="11" max="11" width="108.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="4"/>
+    <col min="9" max="9" width="15.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.109375" style="4" customWidth="1"/>
+    <col min="11" max="11" width="108.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>33</v>
       </c>
@@ -4075,7 +4231,7 @@
       <c r="F1" s="23"/>
       <c r="G1" s="23"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="25" t="s">
         <v>34</v>
       </c>
@@ -4086,7 +4242,7 @@
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
     </row>
-    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="12">
         <v>1</v>
       </c>
@@ -4096,7 +4252,7 @@
       <c r="C5" s="12"/>
       <c r="E5" s="13"/>
     </row>
-    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="12">
         <v>2</v>
       </c>
@@ -4106,7 +4262,7 @@
       <c r="C6" s="12"/>
       <c r="E6" s="13"/>
     </row>
-    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="12">
         <v>3</v>
       </c>
@@ -4116,13 +4272,13 @@
       <c r="C7" s="12"/>
       <c r="E7" s="13"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E8" s="13"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E9" s="13"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="29" t="s">
         <v>39</v>
       </c>
@@ -4139,7 +4295,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="30">
         <v>1001</v>
       </c>
@@ -4156,7 +4312,7 @@
         <v>12500</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="30">
         <v>1002</v>
       </c>
@@ -4173,7 +4329,7 @@
         <v>13500</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="30">
         <v>1003</v>
       </c>
@@ -4190,7 +4346,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="30">
         <v>1004</v>
       </c>
@@ -4207,7 +4363,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="30">
         <v>1005</v>
       </c>
@@ -4224,7 +4380,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="30">
         <v>1006</v>
       </c>
@@ -4241,7 +4397,7 @@
         <v>14500</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="30">
         <v>1007</v>
       </c>
@@ -4258,7 +4414,7 @@
         <v>14200</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="30">
         <v>1008</v>
       </c>
@@ -4275,7 +4431,7 @@
         <v>13000</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="30">
         <v>1009</v>
       </c>
@@ -4292,7 +4448,7 @@
         <v>11000</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="33">
         <v>1010</v>
       </c>
@@ -4309,7 +4465,7 @@
         <v>11400</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="36" t="s">
         <v>69</v>
       </c>
@@ -4322,7 +4478,7 @@
       </c>
       <c r="J21" s="28"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40"/>
       <c r="B23" s="40"/>
       <c r="C23" s="40"/>
@@ -4335,11 +4491,11 @@
       <c r="J23" s="40"/>
       <c r="K23" s="40"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="I25" s="28"/>
       <c r="J25" s="28"/>
     </row>
-    <row r="26" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="18" x14ac:dyDescent="0.3">
       <c r="A26" s="42" t="s">
         <v>70</v>
       </c>
@@ -4354,7 +4510,7 @@
       <c r="J26" s="26"/>
       <c r="K26" s="26"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>72</v>
       </c>
@@ -4371,7 +4527,7 @@
         <v>=E21</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>73</v>
       </c>
@@ -4388,7 +4544,7 @@
         <v>=$E$21</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>74</v>
       </c>
@@ -4399,7 +4555,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="45" t="s">
         <v>75</v>
       </c>
@@ -4416,7 +4572,7 @@
         <v>=E$21</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="45" t="s">
         <v>76</v>
       </c>
@@ -4434,10 +4590,10 @@
         <v>=$E21</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="J32" s="28"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="46" t="s">
         <v>77</v>
       </c>
@@ -4448,7 +4604,7 @@
       <c r="F33" s="48"/>
       <c r="G33" s="47"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="47" t="s">
         <v>78</v>
       </c>
@@ -4459,12 +4615,12 @@
       <c r="F34" s="48"/>
       <c r="G34" s="47"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="49" t="s">
         <v>79</v>
       </c>
@@ -4478,7 +4634,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="11" t="s">
         <v>83</v>
       </c>
@@ -4497,7 +4653,7 @@
         <v>=B38*C38</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="11" t="s">
         <v>84</v>
       </c>
@@ -4507,13 +4663,16 @@
       <c r="C39" s="51">
         <v>150</v>
       </c>
-      <c r="D39" s="52"/>
+      <c r="D39" s="52">
+        <f t="shared" ref="D39:D40" si="1">B39*C39</f>
+        <v>450</v>
+      </c>
       <c r="E39" s="4" t="str">
-        <f t="shared" ref="E39:E40" ca="1" si="1">IFERROR(_xlfn.FORMULATEXT(D39),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" ref="E39:E40" ca="1" si="2">IFERROR(_xlfn.FORMULATEXT(D39),"")</f>
+        <v>=B39*C39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="11" t="s">
         <v>85</v>
       </c>
@@ -4523,28 +4682,32 @@
       <c r="C40" s="51">
         <v>1200</v>
       </c>
-      <c r="D40" s="52"/>
+      <c r="D40" s="52">
+        <f t="shared" si="1"/>
+        <v>1200</v>
+      </c>
       <c r="E40" s="4" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="2"/>
+        <v>=B40*C40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C41" s="53" t="s">
         <v>69</v>
       </c>
       <c r="D41" s="54">
         <f>SUM(D38:D40)</f>
-        <v>900</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2550</v>
+      </c>
+      <c r="I41" s="142"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>86</v>
       </c>
       <c r="H44" s="55"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="56" t="s">
         <v>87</v>
       </c>
@@ -4567,7 +4730,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="57" t="s">
         <v>94</v>
       </c>
@@ -4596,7 +4759,7 @@
         <v>=F46/$F$51</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="57" t="s">
         <v>95</v>
       </c>
@@ -4613,16 +4776,19 @@
         <v>320</v>
       </c>
       <c r="F47" s="59">
-        <f t="shared" ref="F47:F50" si="2">SUM(B47:E47)</f>
+        <f t="shared" ref="F47:F50" si="3">SUM(B47:E47)</f>
         <v>1270</v>
       </c>
-      <c r="G47" s="60"/>
+      <c r="G47" s="60">
+        <f t="shared" ref="G47:G50" si="4">F47/$F$51</f>
+        <v>0.19629057187017002</v>
+      </c>
       <c r="H47" s="4" t="str">
-        <f t="shared" ref="H47:H50" ca="1" si="3">IFERROR(_xlfn.FORMULATEXT(G47),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" ref="H47:H50" ca="1" si="5">IFERROR(_xlfn.FORMULATEXT(G47),"")</f>
+        <v>=F47/$F$51</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="57" t="s">
         <v>96</v>
       </c>
@@ -4639,16 +4805,19 @@
         <v>240</v>
       </c>
       <c r="F48" s="59">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>930</v>
       </c>
-      <c r="G48" s="60"/>
+      <c r="G48" s="60">
+        <f t="shared" si="4"/>
+        <v>0.14374034003091191</v>
+      </c>
       <c r="H48" s="4" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="5"/>
+        <v>=F48/$F$51</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="57" t="s">
         <v>97</v>
       </c>
@@ -4665,16 +4834,19 @@
         <v>280</v>
       </c>
       <c r="F49" s="59">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1090</v>
       </c>
-      <c r="G49" s="60"/>
+      <c r="G49" s="60">
+        <f t="shared" si="4"/>
+        <v>0.16846986089644514</v>
+      </c>
       <c r="H49" s="4" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="5"/>
+        <v>=F49/$F$51</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="57" t="s">
         <v>98</v>
       </c>
@@ -4691,62 +4863,65 @@
         <v>450</v>
       </c>
       <c r="F50" s="59">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1770</v>
       </c>
-      <c r="G50" s="60"/>
+      <c r="G50" s="60">
+        <f t="shared" si="4"/>
+        <v>0.27357032457496139</v>
+      </c>
       <c r="H50" s="4" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="5"/>
+        <v>=F50/$F$51</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="61" t="s">
         <v>92</v>
       </c>
       <c r="B51" s="62">
-        <f t="shared" ref="B51:F51" si="4">SUM(B46:B50)</f>
+        <f t="shared" ref="B51:F51" si="6">SUM(B46:B50)</f>
         <v>1530</v>
       </c>
       <c r="C51" s="62">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1650</v>
       </c>
       <c r="D51" s="62">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1630</v>
       </c>
       <c r="E51" s="62">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1660</v>
       </c>
       <c r="F51" s="62">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6470</v>
       </c>
       <c r="G51" s="63">
         <f>SUM(G46:G50)</f>
-        <v>0.21792890262751158</v>
+        <v>1</v>
       </c>
       <c r="H51" s="55" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H52" s="55"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
         <v>99</v>
       </c>
       <c r="F54" s="55"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="64" t="s">
         <v>87</v>
       </c>
@@ -4763,7 +4938,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="57" t="s">
         <v>94</v>
       </c>
@@ -4771,9 +4946,18 @@
         <f>B46/B$51</f>
         <v>0.21568627450980393</v>
       </c>
-      <c r="C57" s="65"/>
-      <c r="D57" s="65"/>
-      <c r="E57" s="65"/>
+      <c r="C57" s="65">
+        <f t="shared" ref="C57:E57" si="7">C46/C$51</f>
+        <v>0.21212121212121213</v>
+      </c>
+      <c r="D57" s="65">
+        <f t="shared" si="7"/>
+        <v>0.22085889570552147</v>
+      </c>
+      <c r="E57" s="65">
+        <f t="shared" si="7"/>
+        <v>0.22289156626506024</v>
+      </c>
       <c r="F57" s="24" t="str">
         <f ca="1">IFERROR(_xlfn.FORMULATEXT(B57),"")</f>
         <v>=B46/B$51</v>
@@ -4782,96 +4966,144 @@
         <v>101</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="57" t="s">
         <v>95</v>
       </c>
-      <c r="B58" s="65"/>
-      <c r="C58" s="65"/>
-      <c r="D58" s="65"/>
-      <c r="E58" s="65"/>
+      <c r="B58" s="65">
+        <f t="shared" ref="B58:E61" si="8">B47/B$51</f>
+        <v>0.19607843137254902</v>
+      </c>
+      <c r="C58" s="65">
+        <f t="shared" si="8"/>
+        <v>0.19393939393939394</v>
+      </c>
+      <c r="D58" s="65">
+        <f t="shared" si="8"/>
+        <v>0.20245398773006135</v>
+      </c>
+      <c r="E58" s="65">
+        <f t="shared" si="8"/>
+        <v>0.19277108433734941</v>
+      </c>
       <c r="F58" s="24" t="str">
-        <f t="shared" ref="F58:F62" ca="1" si="5">IFERROR(_xlfn.FORMULATEXT(B58),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" ref="F58:F62" ca="1" si="9">IFERROR(_xlfn.FORMULATEXT(B58),"")</f>
+        <v>=B47/B$51</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="57" t="s">
         <v>96</v>
       </c>
-      <c r="B59" s="65"/>
-      <c r="C59" s="65"/>
-      <c r="D59" s="65"/>
-      <c r="E59" s="65"/>
+      <c r="B59" s="65">
+        <f t="shared" si="8"/>
+        <v>0.13071895424836602</v>
+      </c>
+      <c r="C59" s="65">
+        <f t="shared" si="8"/>
+        <v>0.15151515151515152</v>
+      </c>
+      <c r="D59" s="65">
+        <f t="shared" si="8"/>
+        <v>0.14723926380368099</v>
+      </c>
+      <c r="E59" s="65">
+        <f t="shared" si="8"/>
+        <v>0.14457831325301204</v>
+      </c>
       <c r="F59" s="24" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="9"/>
+        <v>=B48/B$51</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="57" t="s">
         <v>97</v>
       </c>
-      <c r="B60" s="65"/>
-      <c r="C60" s="65"/>
-      <c r="D60" s="65"/>
-      <c r="E60" s="65"/>
+      <c r="B60" s="65">
+        <f t="shared" si="8"/>
+        <v>0.16339869281045752</v>
+      </c>
+      <c r="C60" s="65">
+        <f t="shared" si="8"/>
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="D60" s="65">
+        <f t="shared" si="8"/>
+        <v>0.15950920245398773</v>
+      </c>
+      <c r="E60" s="65">
+        <f t="shared" si="8"/>
+        <v>0.16867469879518071</v>
+      </c>
       <c r="F60" s="24" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="9"/>
+        <v>=B49/B$51</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="57" t="s">
         <v>98</v>
       </c>
-      <c r="B61" s="65"/>
-      <c r="C61" s="65"/>
-      <c r="D61" s="65"/>
-      <c r="E61" s="65"/>
+      <c r="B61" s="65">
+        <f t="shared" si="8"/>
+        <v>0.29411764705882354</v>
+      </c>
+      <c r="C61" s="65">
+        <f t="shared" si="8"/>
+        <v>0.26060606060606062</v>
+      </c>
+      <c r="D61" s="65">
+        <f t="shared" si="8"/>
+        <v>0.26993865030674846</v>
+      </c>
+      <c r="E61" s="65">
+        <f t="shared" si="8"/>
+        <v>0.27108433734939757</v>
+      </c>
       <c r="F61" s="24" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="9"/>
+        <v>=B50/B$51</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="61" t="s">
         <v>92</v>
       </c>
       <c r="B62" s="63">
         <f>SUM(B57:B61)</f>
-        <v>0.21568627450980393</v>
+        <v>1</v>
       </c>
       <c r="C62" s="63">
-        <f t="shared" ref="C62:E62" si="6">SUM(C57:C61)</f>
-        <v>0</v>
+        <f t="shared" ref="C62:E62" si="10">SUM(C57:C61)</f>
+        <v>1</v>
       </c>
       <c r="D62" s="63">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>1</v>
       </c>
       <c r="E62" s="63">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>1</v>
       </c>
       <c r="F62" s="24" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="9"/>
         <v>=SUM(B57:B61)</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
         <v>102</v>
       </c>
       <c r="F65" s="4"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
         <v>103</v>
       </c>
       <c r="F66" s="4"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="64" t="s">
         <v>87</v>
       </c>
@@ -4891,7 +5123,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="57" t="s">
         <v>94</v>
       </c>
@@ -4899,12 +5131,21 @@
         <f>B46/$F46</f>
         <v>0.23404255319148937</v>
       </c>
-      <c r="C68" s="65"/>
-      <c r="D68" s="65"/>
-      <c r="E68" s="65"/>
+      <c r="C68" s="65">
+        <f t="shared" ref="C68:E68" si="11">C46/$F46</f>
+        <v>0.24822695035460993</v>
+      </c>
+      <c r="D68" s="65">
+        <f t="shared" si="11"/>
+        <v>0.25531914893617019</v>
+      </c>
+      <c r="E68" s="65">
+        <f t="shared" si="11"/>
+        <v>0.26241134751773049</v>
+      </c>
       <c r="F68" s="63">
         <f>SUM(B68:E68)</f>
-        <v>0.23404255319148937</v>
+        <v>1</v>
       </c>
       <c r="G68" s="24" t="str">
         <f ca="1">IFERROR(_xlfn.FORMULATEXT(B68),"")</f>
@@ -4914,72 +5155,120 @@
         <v>104</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="57" t="s">
         <v>95</v>
       </c>
-      <c r="B69" s="65"/>
-      <c r="C69" s="65"/>
-      <c r="D69" s="65"/>
-      <c r="E69" s="65"/>
+      <c r="B69" s="65">
+        <f t="shared" ref="B69:E72" si="12">B47/$F47</f>
+        <v>0.23622047244094488</v>
+      </c>
+      <c r="C69" s="65">
+        <f t="shared" si="12"/>
+        <v>0.25196850393700787</v>
+      </c>
+      <c r="D69" s="65">
+        <f t="shared" si="12"/>
+        <v>0.25984251968503935</v>
+      </c>
+      <c r="E69" s="65">
+        <f t="shared" si="12"/>
+        <v>0.25196850393700787</v>
+      </c>
       <c r="F69" s="63">
-        <f t="shared" ref="F69:F72" si="7">SUM(B69:E69)</f>
-        <v>0</v>
+        <f t="shared" ref="F69:F72" si="13">SUM(B69:E69)</f>
+        <v>1</v>
       </c>
       <c r="G69" s="24" t="str">
-        <f t="shared" ref="G69:G72" ca="1" si="8">IFERROR(_xlfn.FORMULATEXT(B69),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" ref="G69:G72" ca="1" si="14">IFERROR(_xlfn.FORMULATEXT(B69),"")</f>
+        <v>=B47/$F47</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="57" t="s">
         <v>96</v>
       </c>
-      <c r="B70" s="65"/>
-      <c r="C70" s="65"/>
-      <c r="D70" s="65"/>
-      <c r="E70" s="65"/>
+      <c r="B70" s="65">
+        <f t="shared" si="12"/>
+        <v>0.21505376344086022</v>
+      </c>
+      <c r="C70" s="65">
+        <f t="shared" si="12"/>
+        <v>0.26881720430107525</v>
+      </c>
+      <c r="D70" s="65">
+        <f t="shared" si="12"/>
+        <v>0.25806451612903225</v>
+      </c>
+      <c r="E70" s="65">
+        <f t="shared" si="12"/>
+        <v>0.25806451612903225</v>
+      </c>
       <c r="F70" s="63">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="G70" s="24" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="14"/>
+        <v>=B48/$F48</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="57" t="s">
         <v>97</v>
       </c>
-      <c r="B71" s="65"/>
-      <c r="C71" s="65"/>
-      <c r="D71" s="65"/>
-      <c r="E71" s="65"/>
+      <c r="B71" s="65">
+        <f t="shared" si="12"/>
+        <v>0.22935779816513763</v>
+      </c>
+      <c r="C71" s="65">
+        <f t="shared" si="12"/>
+        <v>0.27522935779816515</v>
+      </c>
+      <c r="D71" s="65">
+        <f t="shared" si="12"/>
+        <v>0.23853211009174313</v>
+      </c>
+      <c r="E71" s="65">
+        <f t="shared" si="12"/>
+        <v>0.25688073394495414</v>
+      </c>
       <c r="F71" s="63">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="G71" s="24" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="14"/>
+        <v>=B49/$F49</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="57" t="s">
         <v>98</v>
       </c>
-      <c r="B72" s="65"/>
-      <c r="C72" s="65"/>
-      <c r="D72" s="65"/>
-      <c r="E72" s="65"/>
+      <c r="B72" s="65">
+        <f t="shared" si="12"/>
+        <v>0.25423728813559321</v>
+      </c>
+      <c r="C72" s="65">
+        <f t="shared" si="12"/>
+        <v>0.24293785310734464</v>
+      </c>
+      <c r="D72" s="65">
+        <f t="shared" si="12"/>
+        <v>0.24858757062146894</v>
+      </c>
+      <c r="E72" s="65">
+        <f t="shared" si="12"/>
+        <v>0.25423728813559321</v>
+      </c>
       <c r="F72" s="63">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="G72" s="24" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
+        <f t="shared" ca="1" si="14"/>
+        <v>=B50/$F50</v>
       </c>
     </row>
   </sheetData>
@@ -4995,33 +5284,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{830C5AF6-9730-4792-8BF2-08BA018BDC78}">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:A10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" customWidth="1"/>
-    <col min="10" max="10" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5546875" customWidth="1"/>
+    <col min="2" max="2" width="17.109375" customWidth="1"/>
+    <col min="10" max="10" width="22.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.3">
       <c r="A1" s="68" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="69" t="s">
         <v>107</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="69" t="s">
-        <v>108</v>
       </c>
       <c r="B5" s="69">
         <v>2020</v>
@@ -5036,9 +5327,9 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="31" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B6" s="70">
         <v>50000</v>
@@ -5056,9 +5347,9 @@
         <v>66550.000000000015</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="31" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B7" s="70">
         <v>40000</v>
@@ -5076,9 +5367,9 @@
         <v>53240.000000000015</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B8" s="70">
         <v>25000</v>
@@ -5096,9 +5387,9 @@
         <v>33275.000000000007</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="31" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B9" s="70">
         <v>15000</v>
@@ -5116,9 +5407,9 @@
         <v>19965</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="31" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B10" s="70">
         <v>70000</v>
@@ -5136,7 +5427,7 @@
         <v>93170.000000000015</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="71" t="s">
         <v>92</v>
       </c>
@@ -5145,32 +5436,32 @@
       <c r="D11" s="72"/>
       <c r="E11" s="72"/>
     </row>
-    <row r="12" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="73" t="s">
+        <v>107</v>
+      </c>
+      <c r="B16" s="74" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="73" t="s">
+      <c r="C16" s="74" t="s">
+        <v>116</v>
+      </c>
+      <c r="D16" s="74" t="s">
+        <v>117</v>
+      </c>
+      <c r="E16" s="75" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="76" t="s">
         <v>108</v>
-      </c>
-      <c r="B16" s="74" t="s">
-        <v>116</v>
-      </c>
-      <c r="C16" s="74" t="s">
-        <v>117</v>
-      </c>
-      <c r="D16" s="74" t="s">
-        <v>118</v>
-      </c>
-      <c r="E16" s="75" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="76" t="s">
-        <v>109</v>
       </c>
       <c r="B17" s="70">
         <v>50000</v>
@@ -5188,9 +5479,9 @@
         <v>66550.000000000015</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="76" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B18" s="70">
         <v>40000</v>
@@ -5208,9 +5499,9 @@
         <v>53240.000000000015</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="76" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B19" s="70">
         <v>25000</v>
@@ -5228,9 +5519,9 @@
         <v>33275.000000000007</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="76" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B20" s="70">
         <v>15000</v>
@@ -5248,9 +5539,9 @@
         <v>19965</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="76" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B21" s="70">
         <v>70000</v>
@@ -5268,7 +5559,7 @@
         <v>93170.000000000015</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="78" t="s">
         <v>92</v>
       </c>
@@ -5290,20 +5581,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{836316FE-5AC6-4664-9EBB-2EBD316E17A0}">
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="11" max="11" width="3.85546875" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="13"/>
-    <col min="13" max="13" width="64.42578125" style="4" customWidth="1"/>
-    <col min="14" max="15" width="9.140625" style="13"/>
-    <col min="16" max="16" width="9.140625" style="4"/>
+    <col min="11" max="11" width="3.88671875" customWidth="1"/>
+    <col min="12" max="12" width="9.109375" style="13"/>
+    <col min="13" max="13" width="64.44140625" style="4" customWidth="1"/>
+    <col min="14" max="15" width="9.109375" style="13"/>
+    <col min="16" max="16" width="9.109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="22"/>
@@ -5315,9 +5608,9 @@
       <c r="I1" s="23"/>
       <c r="J1" s="23"/>
     </row>
-    <row r="6" spans="1:14" ht="26.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="26.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="L8" s="13">
         <f>1+1</f>
         <v>2</v>
@@ -5327,7 +5620,7 @@
         <v>=1+1</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="L9" s="13">
         <f>1+1</f>
         <v>2</v>
@@ -5337,7 +5630,7 @@
         <v>=1+1</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="L10" s="13">
         <f>5-3</f>
         <v>2</v>
@@ -5347,7 +5640,7 @@
         <v>=5-3</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="L11" s="13">
         <f>10/5</f>
         <v>2</v>
@@ -5357,7 +5650,7 @@
         <v>=10/5</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="L12" s="13">
         <f>1*2</f>
         <v>2</v>
@@ -5367,7 +5660,7 @@
         <v>=1*2</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="L13" s="13">
         <f>(3+5)/4</f>
         <v>2</v>
@@ -5377,7 +5670,7 @@
         <v>=(3+5)/4</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="L14" s="13">
         <f>SUM(N7:R7)</f>
         <v>0</v>
@@ -5387,7 +5680,7 @@
         <v>=SUM(N7:R7)</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="L15" s="13">
         <f>SUM(N7,P7,R7)</f>
         <v>0</v>
@@ -5398,7 +5691,7 @@
       </c>
       <c r="N15" s="81"/>
     </row>
-    <row r="16" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="L16" s="13">
         <f>$L$15</f>
         <v>0</v>
@@ -5408,7 +5701,7 @@
         <v>=$L$15</v>
       </c>
     </row>
-    <row r="17" spans="4:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:13" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="L17" s="82">
         <f>2%</f>
         <v>0.02</v>
@@ -5418,14 +5711,14 @@
         <v>=2%</v>
       </c>
     </row>
-    <row r="18" spans="4:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:13" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="L18" s="83"/>
       <c r="M18" s="80" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="19" spans="4:13" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:13" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="L19" s="83">
         <v>118100</v>
       </c>
@@ -5434,12 +5727,12 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="4:13" ht="92.25" x14ac:dyDescent="1.35">
+    <row r="21" spans="4:13" ht="91.8" x14ac:dyDescent="1.65">
       <c r="D21" s="84" t="s">
+        <v>120</v>
+      </c>
+      <c r="M21" s="85" t="s">
         <v>121</v>
-      </c>
-      <c r="M21" s="85" t="s">
-        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -5452,20 +5745,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DFA8399-7D39-4353-B400-609AB7FFFD47}">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="23.5703125" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" customWidth="1"/>
+    <col min="2" max="2" width="23.5546875" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" customWidth="1"/>
+    <col min="5" max="5" width="12.5546875" customWidth="1"/>
+    <col min="10" max="10" width="14.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="86" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B1" s="87"/>
       <c r="C1" s="88"/>
@@ -5474,12 +5769,13 @@
       <c r="F1" s="23"/>
       <c r="G1" s="23"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="2.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I4" s="89" t="s">
         <v>124</v>
-      </c>
-      <c r="I4" s="89" t="s">
-        <v>125</v>
       </c>
       <c r="J4" s="90">
         <f>SUM(D16:D34)</f>
@@ -5490,12 +5786,13 @@
         <v>=SUM(D16:D34)</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>126</v>
+        <v>301</v>
       </c>
       <c r="I6" s="89" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="J6" s="90">
         <f>SUBTOTAL(9,D16:D34)</f>
@@ -5506,17 +5803,17 @@
         <v>=SUBTOTAL(9,D16:D34)</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="91" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="I9" s="89" t="s">
-        <v>130</v>
+        <v>297</v>
       </c>
       <c r="J9" s="92">
         <f>AVERAGE(D16:D34)</f>
@@ -5527,12 +5824,12 @@
         <v>=AVERAGE(D16:D34)</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>131</v>
+        <v>299</v>
       </c>
       <c r="I10" s="89" t="s">
-        <v>132</v>
+        <v>298</v>
       </c>
       <c r="J10" s="92">
         <f>AVERAGEA(D16:D34)</f>
@@ -5543,11 +5840,14 @@
         <v>=AVERAGEA(D16:D34)</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>300</v>
+      </c>
       <c r="G11" s="93"/>
       <c r="H11" s="93"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="93"/>
       <c r="C13" s="94" t="s">
         <v>69</v>
@@ -5558,35 +5858,35 @@
       </c>
       <c r="J13" s="96"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C14" s="94" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D14" s="95">
         <f>SUBTOTAL(109,D16:D34)</f>
         <v>9309</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="97" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B15" s="97" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C15" s="97" t="s">
         <v>42</v>
       </c>
       <c r="D15" s="98" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="99" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B16" s="99" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C16" s="99" t="s">
         <v>46</v>
@@ -5595,12 +5895,12 @@
         <v>620</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="99" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B17" s="99" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C17" s="99" t="s">
         <v>46</v>
@@ -5609,12 +5909,12 @@
         <v>519</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="99" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B18" s="99" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C18" s="99" t="s">
         <v>46</v>
@@ -5623,12 +5923,12 @@
         <v>492</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="99" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B19" s="99" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C19" s="99" t="s">
         <v>46</v>
@@ -5637,12 +5937,12 @@
         <v>559</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="99" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B20" s="99" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C20" s="99" t="s">
         <v>46</v>
@@ -5651,12 +5951,12 @@
         <v>591</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="99" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B21" s="99" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C21" s="99" t="s">
         <v>46</v>
@@ -5665,12 +5965,12 @@
         <v>610</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="99" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B22" s="99" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C22" s="99" t="s">
         <v>46</v>
@@ -5679,12 +5979,12 @@
         <v>390</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="99" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B23" s="99" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C23" s="99" t="s">
         <v>46</v>
@@ -5693,12 +5993,12 @@
         <v>517</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="99" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B24" s="99" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C24" s="99" t="s">
         <v>57</v>
@@ -5707,12 +6007,12 @@
         <v>449</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="99" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B25" s="99" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C25" s="99" t="s">
         <v>57</v>
@@ -5721,12 +6021,12 @@
         <v>410</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="99" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B26" s="99" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C26" s="99" t="s">
         <v>57</v>
@@ -5735,12 +6035,12 @@
         <v>435</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="99" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B27" s="99" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C27" s="99" t="s">
         <v>46</v>
@@ -5749,12 +6049,12 @@
         <v>468</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="99" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B28" s="99" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C28" s="99" t="s">
         <v>46</v>
@@ -5763,12 +6063,12 @@
         <v>568</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="99" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B29" s="99" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C29" s="99" t="s">
         <v>46</v>
@@ -5777,12 +6077,12 @@
         <v>432</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="99" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B30" s="99" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C30" s="99" t="s">
         <v>46</v>
@@ -5791,12 +6091,12 @@
         <v>380</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="99" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B31" s="99" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C31" s="99" t="s">
         <v>57</v>
@@ -5805,12 +6105,12 @@
         <v>479</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="99" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B32" s="99" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C32" s="99" t="s">
         <v>57</v>
@@ -5819,12 +6119,12 @@
         <v>471</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="99" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B33" s="99" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C33" s="99" t="s">
         <v>46</v>
@@ -5834,12 +6134,12 @@
       </c>
       <c r="F33" s="100"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="99" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B34" s="99" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C34" s="99" t="s">
         <v>57</v>
@@ -5848,7 +6148,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="101"/>
       <c r="B35" s="102"/>
       <c r="C35" s="102" t="s">
@@ -5859,7 +6159,7 @@
         <v>9309</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <autoFilter ref="A15:D35" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5871,20 +6171,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{948A7665-CD67-44BB-9410-8E486B553E7F}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="26.28515625" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" customWidth="1"/>
+    <col min="3" max="3" width="19.5546875" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" customWidth="1"/>
+    <col min="5" max="5" width="18.5546875" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="86" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B1" s="87"/>
       <c r="C1" s="88"/>
@@ -5892,12 +6194,12 @@
       <c r="E1" s="23"/>
       <c r="F1" s="23"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D4" s="89" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="E4" s="104">
         <f>MIN(C10:C17)</f>
@@ -5908,12 +6210,12 @@
         <v>=MIN(C10:C17)</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D5" s="89" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E5" s="104">
         <f>MAX(C10:C17)</f>
@@ -5924,17 +6226,17 @@
         <v>=MAX(C10:C17)</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B9" s="56" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C9" s="115" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B10" s="11" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C10" s="116">
         <v>1700</v>
@@ -5944,79 +6246,85 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B11" s="11" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C11" s="116">
         <v>900</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B12" s="11" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C12" s="116">
         <v>800</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B13" s="11" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C13" s="116">
         <v>2999</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B14" s="11" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C14" s="116">
         <v>790</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B15" s="11" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C15" s="116">
         <v>500</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B16" s="11" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C16" s="116">
         <v>799</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B17" s="11" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C17" s="116">
         <v>1500</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C18" s="117"/>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B19" s="118" t="s">
-        <v>179</v>
-      </c>
-      <c r="C19" s="119"/>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+      <c r="C19" s="119">
+        <f>MIN(C10:C17)</f>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C20" s="117"/>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B21" s="118" t="s">
-        <v>180</v>
-      </c>
-      <c r="C21" s="119"/>
+        <v>175</v>
+      </c>
+      <c r="C21" s="119">
+        <f>MAX(C10:C17)</f>
+        <v>2999</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6028,21 +6336,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CF3F696-03D1-4667-9EC0-8641C78399A8}">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.140625" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" customWidth="1"/>
+    <col min="1" max="1" width="23.109375" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" customWidth="1"/>
     <col min="3" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="22.5703125" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.85546875" customWidth="1"/>
+    <col min="5" max="5" width="22.5546875" customWidth="1"/>
+    <col min="6" max="6" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="86" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B1" s="87"/>
       <c r="C1" s="88"/>
@@ -6051,12 +6361,12 @@
       <c r="F1" s="23"/>
       <c r="G1" s="23"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="E4" s="89" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="F4" s="104">
         <f>COUNT(C10:C18)</f>
@@ -6067,12 +6377,12 @@
         <v>=COUNT(C10:C18)</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="E5" s="89" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="F5" s="104">
         <f>COUNTA(B10:B18)</f>
@@ -6083,12 +6393,12 @@
         <v>=COUNTA(B10:B18)</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E6" s="89" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="F6" s="104">
         <f>COUNTBLANK(B10:B18)</f>
@@ -6099,23 +6409,23 @@
         <v>=COUNTBLANK(B10:B18)</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="97" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B9" s="105" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C9" s="105" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D9" s="105" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="31" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B10" s="106">
         <v>43845</v>
@@ -6127,9 +6437,9 @@
         <v>106700.00000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="31" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B11" s="106">
         <v>44372</v>
@@ -6139,9 +6449,9 @@
         <v>107140.00000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="31" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B12" s="106">
         <v>43877</v>
@@ -6153,9 +6463,9 @@
         <v>78430</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="31" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B13" s="106">
         <v>44388</v>
@@ -6165,9 +6475,9 @@
         <v>90750.000000000015</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="31" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B14" s="110"/>
       <c r="C14" s="107">
@@ -6177,12 +6487,12 @@
         <v>125400.00000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="31" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B15" s="111" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C15" s="107">
         <v>91000</v>
@@ -6191,9 +6501,9 @@
         <v>100100.00000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="31" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B16" s="106">
         <v>43939</v>
@@ -6205,23 +6515,23 @@
         <v>87120</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="31" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B17" s="106">
         <v>44441</v>
       </c>
       <c r="C17" s="109" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D17" s="108">
         <v>82500</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="31" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B18" s="106">
         <v>43940</v>
@@ -6233,31 +6543,67 @@
         <v>90200.000000000015</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="112"/>
-      <c r="B20" s="112"/>
-      <c r="C20" s="112"/>
-      <c r="D20" s="112"/>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="112">
+        <f>COUNT(A10:A18)</f>
+        <v>0</v>
+      </c>
+      <c r="B20" s="112">
+        <f>COUNT(B10:B18)</f>
+        <v>7</v>
+      </c>
+      <c r="C20" s="112">
+        <f>COUNT(C10:C18)</f>
+        <v>6</v>
+      </c>
+      <c r="D20" s="112">
+        <f>COUNT(D10:D18)</f>
+        <v>9</v>
+      </c>
       <c r="E20" s="112" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="113"/>
-      <c r="B21" s="113"/>
-      <c r="C21" s="113"/>
-      <c r="D21" s="113"/>
+        <v>143</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="113">
+        <f>COUNTA(A10:A18)</f>
+        <v>9</v>
+      </c>
+      <c r="B21" s="113">
+        <f>COUNTA(B10:B18)</f>
+        <v>8</v>
+      </c>
+      <c r="C21" s="113">
+        <f t="shared" ref="C21:D21" si="1">COUNTA(C10:C18)</f>
+        <v>7</v>
+      </c>
+      <c r="D21" s="113">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
       <c r="E21" s="113" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="114"/>
-      <c r="B22" s="114"/>
-      <c r="C22" s="114"/>
-      <c r="D22" s="114"/>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="114">
+        <f>COUNTBLANK(A10:A18)</f>
+        <v>0</v>
+      </c>
+      <c r="B22" s="114">
+        <f>COUNTBLANK(B10:B18)</f>
+        <v>1</v>
+      </c>
+      <c r="C22" s="114">
+        <f t="shared" ref="C22:D22" si="2">COUNTBLANK(C10:C18)</f>
+        <v>2</v>
+      </c>
+      <c r="D22" s="114">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="E22" s="114" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -6271,356 +6617,421 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D26F72A1-2EA8-40F3-9A7F-4D2124806B6D}">
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView topLeftCell="A30" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H40" sqref="H40"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="13" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" style="13" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" style="13" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" style="4" customWidth="1"/>
-    <col min="8" max="8" width="17.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="4"/>
-    <col min="10" max="10" width="18.42578125" style="4" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="14.44140625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="25.109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="13" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" style="13" customWidth="1"/>
+    <col min="6" max="6" width="20.33203125" style="13" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="17.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.109375" style="4"/>
+    <col min="10" max="10" width="18.44140625" style="4" customWidth="1"/>
+    <col min="11" max="16384" width="9.109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="86" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B1" s="87"/>
       <c r="C1" s="88"/>
       <c r="D1" s="88"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+      <c r="A6" s="121" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="122" t="s">
+        <v>180</v>
+      </c>
+      <c r="B10" s="122" t="s">
+        <v>148</v>
+      </c>
+      <c r="C10" s="122" t="s">
+        <v>181</v>
+      </c>
+      <c r="D10" s="122" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="121" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="122" t="s">
-        <v>185</v>
-      </c>
-      <c r="B10" s="122" t="s">
-        <v>153</v>
-      </c>
-      <c r="C10" s="122" t="s">
-        <v>186</v>
-      </c>
-      <c r="D10" s="122" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="17">
         <v>1001</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C11" s="123">
         <v>80</v>
       </c>
-      <c r="D11" s="120"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D11" s="120" t="str">
+        <f>IF(C11&gt;=80, "Passed", "Failed")</f>
+        <v>Passed</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="17">
         <v>1002</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C12" s="123">
         <v>67</v>
       </c>
-      <c r="D12" s="120"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D12" s="120" t="str">
+        <f t="shared" ref="D12:D31" si="0">IF(C12&gt;=80, "Passed", "Failed")</f>
+        <v>Failed</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="17">
         <v>1003</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C13" s="123">
         <v>81</v>
       </c>
-      <c r="D13" s="120"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D13" s="120" t="str">
+        <f t="shared" si="0"/>
+        <v>Passed</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="17">
         <v>1004</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C14" s="123">
         <v>92</v>
       </c>
-      <c r="D14" s="120"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D14" s="120" t="str">
+        <f t="shared" si="0"/>
+        <v>Passed</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="17">
         <v>1005</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C15" s="123">
         <v>94</v>
       </c>
-      <c r="D15" s="120"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D15" s="120" t="str">
+        <f t="shared" si="0"/>
+        <v>Passed</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="17">
         <v>1006</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C16" s="123">
         <v>85</v>
       </c>
-      <c r="D16" s="120"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D16" s="120" t="str">
+        <f t="shared" si="0"/>
+        <v>Passed</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="17">
         <v>1007</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C17" s="123">
         <v>72</v>
       </c>
-      <c r="D17" s="120"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D17" s="120" t="str">
+        <f t="shared" si="0"/>
+        <v>Failed</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="17">
         <v>1008</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C18" s="123">
         <v>100</v>
       </c>
-      <c r="D18" s="120"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D18" s="120" t="str">
+        <f t="shared" si="0"/>
+        <v>Passed</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="17">
         <v>1009</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C19" s="123">
         <v>96</v>
       </c>
-      <c r="D19" s="120"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D19" s="120" t="str">
+        <f t="shared" si="0"/>
+        <v>Passed</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="17">
         <v>1010</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C20" s="123">
         <v>92</v>
       </c>
-      <c r="D20" s="120"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D20" s="120" t="str">
+        <f t="shared" si="0"/>
+        <v>Passed</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="17">
         <v>1011</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C21" s="123">
         <v>70</v>
       </c>
-      <c r="D21" s="120"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D21" s="120" t="str">
+        <f t="shared" si="0"/>
+        <v>Failed</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="17">
         <v>1012</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C22" s="123">
         <v>90</v>
       </c>
-      <c r="D22" s="120"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D22" s="120" t="str">
+        <f t="shared" si="0"/>
+        <v>Passed</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="17">
         <v>1013</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C23" s="123">
         <v>74</v>
       </c>
-      <c r="D23" s="120"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D23" s="120" t="str">
+        <f t="shared" si="0"/>
+        <v>Failed</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="17">
         <v>1014</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C24" s="123">
         <v>75</v>
       </c>
-      <c r="D24" s="120"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D24" s="120" t="str">
+        <f t="shared" si="0"/>
+        <v>Failed</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="17">
         <v>1015</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C25" s="123">
         <v>100</v>
       </c>
-      <c r="D25" s="120"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D25" s="120" t="str">
+        <f t="shared" si="0"/>
+        <v>Passed</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="17">
         <v>1016</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C26" s="123">
         <v>70</v>
       </c>
-      <c r="D26" s="120"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D26" s="120" t="str">
+        <f t="shared" si="0"/>
+        <v>Failed</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="17">
         <v>1017</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C27" s="123">
         <v>75</v>
       </c>
-      <c r="D27" s="120"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D27" s="120" t="str">
+        <f t="shared" si="0"/>
+        <v>Failed</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="17">
         <v>1018</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C28" s="123">
         <v>60</v>
       </c>
-      <c r="D28" s="120"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D28" s="120" t="str">
+        <f t="shared" si="0"/>
+        <v>Failed</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="17">
         <v>1019</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C29" s="123">
         <v>76</v>
       </c>
-      <c r="D29" s="120"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D29" s="120" t="str">
+        <f t="shared" si="0"/>
+        <v>Failed</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="17">
         <v>1020</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C30" s="123">
         <v>98</v>
       </c>
-      <c r="D30" s="120"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D30" s="120" t="str">
+        <f t="shared" si="0"/>
+        <v>Passed</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="17">
         <v>1021</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C31" s="123">
         <v>84</v>
       </c>
-      <c r="D31" s="120"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D31" s="120" t="str">
+        <f t="shared" si="0"/>
+        <v>Passed</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B33" s="124" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C33" s="125">
         <v>80</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="122" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B37" s="122" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C37" s="122" t="s">
         <v>43</v>
       </c>
       <c r="D37" s="122" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="E37" s="122" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="F37" s="122" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="17">
         <v>1001</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C38" s="50">
         <v>900</v>
@@ -6632,14 +7043,17 @@
         <f>IFERROR(C38/D38,"")</f>
         <v>0.9</v>
       </c>
-      <c r="F38" s="120"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F38" s="120">
+        <f>IF(E38&gt;=80%,$C$48+$C$49,$C$48)</f>
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="17">
         <v>1002</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C39" s="50">
         <v>850</v>
@@ -6651,14 +7065,17 @@
         <f>IFERROR(C39/D39,"")</f>
         <v>0.70833333333333337</v>
       </c>
-      <c r="F39" s="120"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F39" s="120">
+        <f t="shared" ref="F39:F45" si="1">IF(E39&gt;=80%,$C$48+$C$49,$C$48)</f>
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="17">
         <v>1003</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C40" s="50">
         <v>850</v>
@@ -6670,14 +7087,17 @@
         <f>IFERROR(C40/D40,"")</f>
         <v>0.85</v>
       </c>
-      <c r="F40" s="120"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F40" s="120">
+        <f t="shared" si="1"/>
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="17">
         <v>1004</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C41" s="50">
         <v>900</v>
@@ -6689,14 +7109,17 @@
         <f>IFERROR(C41/D41,"")</f>
         <v>0.81818181818181823</v>
       </c>
-      <c r="F41" s="120"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F41" s="120">
+        <f t="shared" si="1"/>
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="17">
         <v>1005</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C42" s="50">
         <v>1000</v>
@@ -6707,14 +7130,17 @@
       <c r="E42" s="126">
         <v>0.79</v>
       </c>
-      <c r="F42" s="120"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F42" s="120">
+        <f t="shared" si="1"/>
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="17">
         <v>1006</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C43" s="50">
         <v>1200</v>
@@ -6726,14 +7152,17 @@
         <f>IFERROR(C43/D43,"")</f>
         <v>1.0909090909090908</v>
       </c>
-      <c r="F43" s="120"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F43" s="120">
+        <f t="shared" si="1"/>
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="17">
         <v>1007</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C44" s="50">
         <v>850</v>
@@ -6745,14 +7174,17 @@
         <f>IFERROR(C44/D44,"")</f>
         <v>0.85</v>
       </c>
-      <c r="F44" s="120"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F44" s="120">
+        <f t="shared" si="1"/>
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="17">
         <v>1008</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C45" s="50">
         <v>800</v>
@@ -6764,27 +7196,30 @@
         <f>IFERROR(C45/D45,"")</f>
         <v>0.8</v>
       </c>
-      <c r="F45" s="120"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F45" s="120">
+        <f t="shared" si="1"/>
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B47" s="127" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C47" s="126">
         <v>0.8</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B48" s="127" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C48" s="120">
         <v>1500</v>
       </c>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B49" s="127" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C49" s="120">
         <v>200</v>
@@ -6800,18 +7235,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A5C3DD7-E704-46D1-983B-39C13AF0893A}">
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="5" width="25.7109375" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" customWidth="1"/>
+    <col min="2" max="5" width="25.6640625" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="86" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B1" s="87"/>
       <c r="C1" s="88"/>
@@ -6829,37 +7266,37 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C7" s="133" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B8" s="129" t="s">
+        <v>263</v>
+      </c>
+      <c r="C8" s="129" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C7" s="133" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="129" t="s">
-        <v>268</v>
-      </c>
-      <c r="C8" s="129" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B9" s="31" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C9" s="134">
         <f>LEN(B9)</f>
@@ -6870,9 +7307,9 @@
         <v>=LEN(B9)</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B10" s="31" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="C10" s="134">
         <f>LEN(B10)</f>
@@ -6883,9 +7320,9 @@
         <v>=LEN(B10)</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B11" s="31" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="C11" s="134">
         <f>LEN(B11)</f>
@@ -6896,138 +7333,156 @@
         <v>=LEN(B11)</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B14" s="129" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C14" s="129" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="D14" s="129" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="E14" s="129" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="F14" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B15" s="31" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="C15" s="130" t="s">
-        <v>274</v>
-      </c>
-      <c r="D15" s="130"/>
+        <v>269</v>
+      </c>
+      <c r="D15" s="130" t="str">
+        <f>LEFT(B15,3)</f>
+        <v>DSA</v>
+      </c>
       <c r="E15" s="130" t="str">
         <f ca="1">IFERROR(_xlfn.FORMULATEXT(D15),"")</f>
-        <v/>
+        <v>=LEFT(B15,3)</v>
       </c>
       <c r="F15" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B16" s="31" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="C16" s="130" t="s">
-        <v>275</v>
-      </c>
-      <c r="D16" s="130"/>
+        <v>270</v>
+      </c>
+      <c r="D16" s="130" t="str">
+        <f>RIGHT(B16,5)</f>
+        <v>12345</v>
+      </c>
       <c r="E16" s="130" t="str">
         <f t="shared" ref="E16:E17" ca="1" si="2">IFERROR(_xlfn.FORMULATEXT(D16),"")</f>
-        <v/>
+        <v>=RIGHT(B16,5)</v>
       </c>
       <c r="F16" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" s="31" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="C17" s="130" t="s">
-        <v>276</v>
-      </c>
-      <c r="D17" s="130"/>
+        <v>271</v>
+      </c>
+      <c r="D17" s="130" t="str">
+        <f>MID(B17,6,4)</f>
+        <v>ABCD</v>
+      </c>
       <c r="E17" s="130" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>=MID(B17,6,4)</v>
       </c>
       <c r="F17" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B20" s="129" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C20" s="105" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="D20" s="129" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="E20" s="105" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B21" s="31" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="C21" s="135">
         <f>LEN(B21)</f>
         <v>13</v>
       </c>
-      <c r="D21" s="130"/>
+      <c r="D21" s="130" t="str">
+        <f>TRIM(B21)</f>
+        <v>John Doe</v>
+      </c>
       <c r="E21" s="135">
         <f>LEN(D21)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B22" s="31" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="C22" s="135">
         <f t="shared" ref="C22:C23" si="3">LEN(B22)</f>
         <v>14</v>
       </c>
-      <c r="D22" s="130"/>
+      <c r="D22" s="130" t="str">
+        <f>TRIM(B22)</f>
+        <v>Bruce Banner</v>
+      </c>
       <c r="E22" s="135">
         <f t="shared" ref="E22:E23" si="4">LEN(D22)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B23" s="31" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C23" s="135">
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
-      <c r="D23" s="130"/>
+      <c r="D23" s="130" t="str">
+        <f>TRIM(B23)</f>
+        <v>Tony Stark</v>
+      </c>
       <c r="E23" s="135">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" ht="18" x14ac:dyDescent="0.35">
       <c r="B27" s="136" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B29" s="137" t="s">
         <v>40</v>
       </c>
@@ -7035,168 +7490,195 @@
         <v>41</v>
       </c>
       <c r="D29" s="137" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="E29" s="137" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B30" s="31" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C30" s="31" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="D30" s="31" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="E30" s="138" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B31" s="31" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C31" s="31" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="D31" s="31" t="s">
-        <v>288</v>
-      </c>
-      <c r="E31" s="139"/>
+        <v>283</v>
+      </c>
+      <c r="E31" s="139" t="str">
+        <f>UPPER(C31) &amp; ", " &amp; B31 &amp; " " &amp; LEFT(D31,1)&amp;"."</f>
+        <v>DOE, Jane L.</v>
+      </c>
       <c r="F31" t="str">
         <f ca="1">IFERROR(_xlfn.FORMULATEXT(E31),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+        <v>=UPPER(C31) &amp; ", " &amp; B31 &amp; " " &amp; LEFT(D31,1)&amp;"."</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B32" s="31" t="s">
+        <v>229</v>
+      </c>
+      <c r="C32" s="31" t="s">
+        <v>230</v>
+      </c>
+      <c r="D32" s="31" t="s">
+        <v>284</v>
+      </c>
+      <c r="E32" s="139" t="str">
+        <f t="shared" ref="E32:E39" si="5">UPPER(C32) &amp; ", " &amp; B32 &amp; " " &amp; LEFT(D32,1)&amp;"."</f>
+        <v>BANNER, Bruce H.</v>
+      </c>
+      <c r="F32" t="str">
+        <f t="shared" ref="F32:F39" ca="1" si="6">IFERROR(_xlfn.FORMULATEXT(E32),"")</f>
+        <v>=UPPER(C32) &amp; ", " &amp; B32 &amp; " " &amp; LEFT(D32,1)&amp;"."</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B33" s="31" t="s">
+        <v>231</v>
+      </c>
+      <c r="C33" s="31" t="s">
+        <v>232</v>
+      </c>
+      <c r="D33" s="31" t="s">
+        <v>285</v>
+      </c>
+      <c r="E33" s="139" t="str">
+        <f t="shared" si="5"/>
+        <v>STARK, Tony I.</v>
+      </c>
+      <c r="F33" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>=UPPER(C33) &amp; ", " &amp; B33 &amp; " " &amp; LEFT(D33,1)&amp;"."</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B34" s="31" t="s">
+        <v>233</v>
+      </c>
+      <c r="C34" s="31" t="s">
         <v>234</v>
       </c>
-      <c r="C32" s="31" t="s">
+      <c r="D34" s="31" t="s">
+        <v>286</v>
+      </c>
+      <c r="E34" s="139" t="str">
+        <f t="shared" si="5"/>
+        <v>PARKER, Peter S.</v>
+      </c>
+      <c r="F34" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>=UPPER(C34) &amp; ", " &amp; B34 &amp; " " &amp; LEFT(D34,1)&amp;"."</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B35" s="31" t="s">
         <v>235</v>
       </c>
-      <c r="D32" s="31" t="s">
+      <c r="C35" s="31" t="s">
+        <v>236</v>
+      </c>
+      <c r="D35" s="31" t="s">
+        <v>287</v>
+      </c>
+      <c r="E35" s="139" t="str">
+        <f t="shared" si="5"/>
+        <v>ROGERS, Steve C.</v>
+      </c>
+      <c r="F35" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>=UPPER(C35) &amp; ", " &amp; B35 &amp; " " &amp; LEFT(D35,1)&amp;"."</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B36" s="31" t="s">
+        <v>238</v>
+      </c>
+      <c r="C36" s="31" t="s">
+        <v>239</v>
+      </c>
+      <c r="D36" s="31" t="s">
+        <v>288</v>
+      </c>
+      <c r="E36" s="139" t="str">
+        <f t="shared" si="5"/>
+        <v>ROMANOFF, Nathasha S.</v>
+      </c>
+      <c r="F36" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>=UPPER(C36) &amp; ", " &amp; B36 &amp; " " &amp; LEFT(D36,1)&amp;"."</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B37" s="31" t="s">
+        <v>241</v>
+      </c>
+      <c r="C37" s="31" t="s">
+        <v>242</v>
+      </c>
+      <c r="D37" s="31" t="s">
         <v>289</v>
       </c>
-      <c r="E32" s="139"/>
-      <c r="F32" t="str">
-        <f t="shared" ref="F32:F39" ca="1" si="5">IFERROR(_xlfn.FORMULATEXT(E32),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B33" s="31" t="s">
-        <v>236</v>
-      </c>
-      <c r="C33" s="31" t="s">
-        <v>237</v>
-      </c>
-      <c r="D33" s="31" t="s">
+      <c r="E37" s="139" t="str">
+        <f t="shared" si="5"/>
+        <v>STRANGE, Stephen D.</v>
+      </c>
+      <c r="F37" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>=UPPER(C37) &amp; ", " &amp; B37 &amp; " " &amp; LEFT(D37,1)&amp;"."</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B38" s="31" t="s">
+        <v>243</v>
+      </c>
+      <c r="C38" s="31" t="s">
+        <v>244</v>
+      </c>
+      <c r="D38" s="31" t="s">
         <v>290</v>
       </c>
-      <c r="E33" s="139"/>
-      <c r="F33" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B34" s="31" t="s">
-        <v>238</v>
-      </c>
-      <c r="C34" s="31" t="s">
-        <v>239</v>
-      </c>
-      <c r="D34" s="31" t="s">
+      <c r="E38" s="139" t="str">
+        <f t="shared" si="5"/>
+        <v>LANG, Scott A.</v>
+      </c>
+      <c r="F38" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>=UPPER(C38) &amp; ", " &amp; B38 &amp; " " &amp; LEFT(D38,1)&amp;"."</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B39" s="31" t="s">
+        <v>245</v>
+      </c>
+      <c r="C39" s="31" t="s">
+        <v>246</v>
+      </c>
+      <c r="D39" s="31" t="s">
         <v>291</v>
       </c>
-      <c r="E34" s="139"/>
-      <c r="F34" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B35" s="31" t="s">
-        <v>240</v>
-      </c>
-      <c r="C35" s="31" t="s">
-        <v>241</v>
-      </c>
-      <c r="D35" s="31" t="s">
-        <v>292</v>
-      </c>
-      <c r="E35" s="139"/>
-      <c r="F35" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B36" s="31" t="s">
-        <v>243</v>
-      </c>
-      <c r="C36" s="31" t="s">
-        <v>244</v>
-      </c>
-      <c r="D36" s="31" t="s">
-        <v>293</v>
-      </c>
-      <c r="E36" s="139"/>
-      <c r="F36" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B37" s="31" t="s">
-        <v>246</v>
-      </c>
-      <c r="C37" s="31" t="s">
-        <v>247</v>
-      </c>
-      <c r="D37" s="31" t="s">
-        <v>294</v>
-      </c>
-      <c r="E37" s="139"/>
-      <c r="F37" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B38" s="31" t="s">
-        <v>248</v>
-      </c>
-      <c r="C38" s="31" t="s">
-        <v>249</v>
-      </c>
-      <c r="D38" s="31" t="s">
-        <v>295</v>
-      </c>
-      <c r="E38" s="139"/>
-      <c r="F38" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B39" s="31" t="s">
-        <v>250</v>
-      </c>
-      <c r="C39" s="31" t="s">
-        <v>251</v>
-      </c>
-      <c r="D39" s="31" t="s">
-        <v>296</v>
-      </c>
-      <c r="E39" s="139"/>
+      <c r="E39" s="139" t="str">
+        <f t="shared" si="5"/>
+        <v>FURY, Nick L.</v>
+      </c>
       <c r="F39" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
+        <f t="shared" ca="1" si="6"/>
+        <v>=UPPER(C39) &amp; ", " &amp; B39 &amp; " " &amp; LEFT(D39,1)&amp;"."</v>
       </c>
     </row>
   </sheetData>
